--- a/数据库表结构.xlsx
+++ b/数据库表结构.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,10 +57,6 @@
     <t>threshold</t>
   </si>
   <si>
-    <t>secretId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>allLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,6 +70,22 @@
   </si>
   <si>
     <t>secret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeOfStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeOfEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secret_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -454,34 +466,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -497,11 +515,11 @@
       <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>0</v>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -513,15 +531,21 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" t="s">
         <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据库表结构.xlsx
+++ b/数据库表结构.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,9 +52,6 @@
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>threshold</t>
   </si>
   <si>
     <t>allLevel</t>
@@ -450,15 +447,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -466,40 +463,37 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M1" t="s">
         <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -516,10 +510,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -534,18 +528,15 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据库表结构.xlsx
+++ b/数据库表结构.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,17 @@
   </si>
   <si>
     <t>secret_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +116,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.199999999999999"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,8 +146,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,15 +467,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -492,8 +512,14 @@
       <c r="O1" t="s">
         <v>1</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -530,8 +556,14 @@
       <c r="O2" t="s">
         <v>2</v>
       </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>10</v>
       </c>

--- a/数据库表结构.xlsx
+++ b/数据库表结构.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zh\AndroidStudioProjects\SecretSharing\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D67ED5F0-5C31-4364-BB9D-645F03B2586A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,14 +90,66 @@
   </si>
   <si>
     <t>share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘密序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级内序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门限值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分发值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘密名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总等级数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总参与者数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘密值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +170,13 @@
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10.199999999999999"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,11 +201,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -466,11 +524,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -521,53 +579,97 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N4" t="s">
         <v>9</v>
       </c>
     </row>
